--- a/data/trans_bre/P44D-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Estudios-trans_bre.xlsx
@@ -638,18 +638,18 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>-0.4796465670253331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.569013596340918</v>
+        <v>-6.461315377606234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.106697831030544</v>
+        <v>-4.930601597312956</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.9433813053814244</v>
+        <v>-0.9426278595939757</v>
       </c>
     </row>
     <row r="6">
@@ -660,18 +660,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.35602001498201</v>
+        <v>17.91837904520344</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.249652658711391</v>
+        <v>4.283510227163813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09923778384245871</v>
+        <v>0.06772972382432954</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.2637798062915077</v>
+        <v>0.3069811484355084</v>
       </c>
     </row>
     <row r="7">
@@ -712,22 +712,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.23308308529636</v>
+        <v>-15.51384478114407</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.34927486958799</v>
+        <v>-15.26352524754943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.601338415304101</v>
+        <v>-5.535772109719899</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6413103234360884</v>
+        <v>-0.6677932886825874</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8644138163312245</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5074839084171044</v>
+        <v>-0.51293527694297</v>
       </c>
     </row>
     <row r="9">
@@ -738,22 +738,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>33.86315748150895</v>
+        <v>29.61396288511806</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.81694406193121</v>
+        <v>11.35993649358721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.224987520965391</v>
+        <v>2.255134717728821</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.456433116472059</v>
+        <v>3.591918920958336</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.546592532833337</v>
+        <v>1.488013335670863</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3765883660189579</v>
+        <v>0.3911334471429128</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +774,7 @@
         <v>0.7415802475626843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.6097923703783231</v>
+        <v>-0.6097923703783259</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.3988062780827646</v>
@@ -783,7 +783,7 @@
         <v>0.01866523873638751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.0288599591743838</v>
+        <v>-0.02885995917438393</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.36263669248758</v>
+        <v>-29.62974059785299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-33.63028921764238</v>
+        <v>-32.28592620350069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.798781287207484</v>
+        <v>-9.35797038624413</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.57824713027898</v>
+        <v>-0.6913541442410809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6529338644917068</v>
+        <v>-0.5992886158926183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3792378157672642</v>
+        <v>-0.3691394547040407</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>52.84497065958881</v>
+        <v>51.40214876005877</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>35.22304310909956</v>
+        <v>32.45475968322734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.221117379876418</v>
+        <v>9.409937819148425</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.088155585411378</v>
+        <v>4.618269877423387</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.285699965028334</v>
+        <v>1.190068316550788</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.492320784950234</v>
+        <v>0.5572439109384454</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-4.405912093860079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-2.591258696851088</v>
+        <v>-2.591258696851087</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3926220498880749</v>
@@ -865,7 +865,7 @@
         <v>-0.3011613469001181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2628974451875558</v>
+        <v>-0.2628974451875557</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.439686122158948</v>
+        <v>-6.748617181819622</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.32045711424905</v>
+        <v>-13.11394799990435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.771949962039813</v>
+        <v>-5.487871812830168</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3702909390382672</v>
+        <v>-0.3831030423939903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6681609348572567</v>
+        <v>-0.7050288415362709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4912421635139368</v>
+        <v>-0.4694715908654343</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.03813928773741</v>
+        <v>14.48188011079214</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.577495028913679</v>
+        <v>4.971905379043704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1450994842454109</v>
+        <v>0.06891786671945169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.072332939889441</v>
+        <v>1.792771056399795</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4682006332391414</v>
+        <v>0.5152690351581715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01572679660514942</v>
+        <v>0.01403196666830607</v>
       </c>
     </row>
     <row r="16">
